--- a/va_facility_data_2025-02-20/Central Alabama Montgomery VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20Montgomery%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Central Alabama Montgomery VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20Montgomery%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4e9f45b742fe4d5a92e18d436089e90d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re65645cd4ea34559ab253e0c84946a21"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Redbbfd83cc614410adc59cf3faf179d7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R10ac2e4180db451489bd126448e4e076"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Racaa3b37eb524f148a23df7d03722056"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rebb64bff67a64c2790f9b921dc72a189"/>
   </x:sheets>
 </x:workbook>
 </file>
